--- a/Data/Motif stuff/NewGroupings.xlsx
+++ b/Data/Motif stuff/NewGroupings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>Down in Exo from cavin-1 intro</t>
   </si>
@@ -297,6 +297,57 @@
   </si>
   <si>
     <t>&gt;hsa-miR-182-5p</t>
+  </si>
+  <si>
+    <t>Up In exo from cavin intro</t>
+  </si>
+  <si>
+    <t>FCFC/1.5</t>
+  </si>
+  <si>
+    <t>CAUUGCACUUGUCUCGGUCUGA</t>
+  </si>
+  <si>
+    <t>FCFC&lt;0.5</t>
+  </si>
+  <si>
+    <t>CUUUCAGUCGGAUGUUUGCAGC</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-25-3p</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-30a-3p</t>
+  </si>
+  <si>
+    <t>UAGCAGCGGGAACAGUUCUGCAG</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-503-5p</t>
+  </si>
+  <si>
+    <t>CAAAGUGCUUACAGUGCAGGUAG</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-17-5p</t>
+  </si>
+  <si>
+    <t>AAUCCUUGGAACCUAGGUGUGAGU</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-362-5p</t>
+  </si>
+  <si>
+    <t>ACCUGGCAUACAAUGUAGAUUU</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-221-5p</t>
+  </si>
+  <si>
+    <t>CAUCUUACCGGACAGUGCUGGA</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-200a-5p</t>
   </si>
 </sst>
 </file>
@@ -632,385 +683,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>24</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Motif stuff/NewGroupings.xlsx
+++ b/Data/Motif stuff/NewGroupings.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="160">
   <si>
     <t>Down in Exo from cavin-1 intro</t>
   </si>
@@ -348,6 +349,162 @@
   </si>
   <si>
     <t>&gt;hsa-miR-200a-5p</t>
+  </si>
+  <si>
+    <t>DiffModDOWN</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-32-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-147b</t>
+  </si>
+  <si>
+    <t>hsa-miR-186-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-98-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-148b-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-3615</t>
+  </si>
+  <si>
+    <t>hsa-miR-151a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-19a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-22-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-30e-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-30a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-20b-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-16-2-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-429</t>
+  </si>
+  <si>
+    <t>hsa-miR-148a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-200a-3p</t>
+  </si>
+  <si>
+    <t>GUGUGCGGAAAUGCUUCUGCUA</t>
+  </si>
+  <si>
+    <t>CAAAGAAUUCUCCUUUUGGGCU</t>
+  </si>
+  <si>
+    <t>UCAGUGCAUCACAGAACUUUGU</t>
+  </si>
+  <si>
+    <t>UCUCUCGGCUCCUCGCGGCUC</t>
+  </si>
+  <si>
+    <t>CUAGACUGAAGCUCCUUGAGG</t>
+  </si>
+  <si>
+    <t>CAAAUUCGUAUCUAGGGGAAUA</t>
+  </si>
+  <si>
+    <t>AAGCUGCCAGUUGAAGAACUGU</t>
+  </si>
+  <si>
+    <t>UGUAAACAUCCUUGACUGGAAG</t>
+  </si>
+  <si>
+    <t>CCAAUAUUACUGUGCUGCUUUA</t>
+  </si>
+  <si>
+    <t>NotDiffDOWN</t>
+  </si>
+  <si>
+    <t>hsa-miR-503-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-125b-2-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-148a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-374a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-363-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-500a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-99b-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-542-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-450b-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1307-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-340-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-421</t>
+  </si>
+  <si>
+    <t>hsa-miR-27a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>CUUCCGGUCUGUGAGCCCCGUC</t>
+  </si>
+  <si>
+    <t>ACUCGGCGUGGCGUCGGUCGUG</t>
+  </si>
+  <si>
+    <t>AUCAACAGACAUUAAUUGGGCGC</t>
+  </si>
+  <si>
+    <t>UUCACAGUGGCUAAGUUCCGC</t>
+  </si>
+  <si>
+    <t>AACCCGUAGAUCCGAUCUUGUG</t>
+  </si>
+  <si>
+    <t>hsa-miR-17-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-125a-3p</t>
+  </si>
+  <si>
+    <t>DiffModDownOpposite</t>
   </si>
 </sst>
 </file>
@@ -685,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,4 +1245,316 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>